--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_112.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_112.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="145">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -44,12 +47,21 @@
     <t/>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
     <t>Certificato medico attestante che il bambino è nato morto</t>
   </si>
   <si>
@@ -101,6 +113,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -402,6 +417,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -487,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G139"/>
+  <dimension ref="A1:H139"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -499,6 +517,7 @@
     <col min="4" max="4" width="32.5859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -520,285 +539,330 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -820,2465 +884,2837 @@
       <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G16" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_112.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_112.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_112.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_112.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="146">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,73 +32,76 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Attestazione di nascita</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
+    <t>Constatazione di avvenuto parto</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
+    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
+    <t>Certificato medico attestante che il bambino è nato morto</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Procura</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Attestazione di nascita</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
-  </si>
-  <si>
-    <t>Constatazione di avvenuto parto</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
-  </si>
-  <si>
-    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
-  </si>
-  <si>
-    <t>Certificato medico attestante che il bambino è nato morto</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Procura</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -885,2836 +888,2836 @@
         <v>5</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="G68" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_112.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_112.xlsx
@@ -47,19 +47,19 @@
     <t/>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,1</t>
   </si>
   <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,2</t>
   </si>
   <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,3</t>
   </si>
   <si>
     <t>Certificato medico attestante che il bambino è nato morto</t>
@@ -422,7 +422,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -520,7 +520,7 @@
     <col min="4" max="4" width="32.5859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_112.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_112.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="148">
   <si>
     <t>Sezione</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalita</t>
@@ -508,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H139"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1244,7 +1250,7 @@
         <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>44</v>
@@ -1336,7 +1342,7 @@
         <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>44</v>
@@ -1451,7 +1457,7 @@
         <v>82</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>44</v>
@@ -1523,10 +1529,10 @@
         <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1540,13 +1546,13 @@
         <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>92</v>
@@ -1560,22 +1566,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>34</v>
@@ -1583,22 +1589,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>34</v>
@@ -1606,19 +1612,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1629,19 +1635,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1652,19 +1658,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1675,19 +1681,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1698,19 +1704,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1721,22 +1727,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>34</v>
@@ -1744,22 +1750,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>34</v>
@@ -1767,22 +1773,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>34</v>
@@ -1790,22 +1796,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>34</v>
@@ -1813,22 +1819,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>34</v>
@@ -1836,19 +1842,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1859,19 +1865,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1882,19 +1888,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1905,22 +1911,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>34</v>
@@ -1928,19 +1934,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1951,19 +1957,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>21</v>
@@ -1974,22 +1980,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>34</v>
@@ -1997,22 +2003,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>34</v>
@@ -2020,22 +2026,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>34</v>
@@ -2043,19 +2049,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2066,22 +2072,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E68" s="2" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>34</v>
@@ -2089,19 +2095,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E69" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2112,22 +2118,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>34</v>
@@ -2135,19 +2141,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2158,19 +2164,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2181,19 +2187,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2204,19 +2210,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2227,22 +2233,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>34</v>
@@ -2250,19 +2256,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2273,19 +2279,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>21</v>
@@ -2296,19 +2302,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2319,22 +2325,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>34</v>
@@ -2342,22 +2348,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>34</v>
@@ -2365,19 +2371,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2388,19 +2394,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2411,22 +2417,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>34</v>
@@ -2434,19 +2440,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2457,22 +2463,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>34</v>
@@ -2480,19 +2486,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>21</v>
@@ -2503,19 +2509,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2526,22 +2532,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>34</v>
@@ -2549,22 +2555,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>34</v>
@@ -2575,16 +2581,16 @@
         <v>98</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2598,7 +2604,7 @@
         <v>98</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
@@ -2607,7 +2613,7 @@
         <v>99</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2621,16 +2627,16 @@
         <v>98</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2641,10 +2647,10 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
@@ -2653,7 +2659,7 @@
         <v>101</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2664,19 +2670,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2687,19 +2693,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2710,16 +2716,16 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>106</v>
@@ -2733,10 +2739,10 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
@@ -2745,7 +2751,7 @@
         <v>101</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2756,19 +2762,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2779,19 +2785,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2802,19 +2808,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2825,19 +2831,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2848,19 +2854,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2871,19 +2877,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2894,10 +2900,10 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -2906,7 +2912,7 @@
         <v>101</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2917,10 +2923,10 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -2929,7 +2935,7 @@
         <v>101</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2940,10 +2946,10 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -2952,7 +2958,7 @@
         <v>101</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2963,19 +2969,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2986,19 +2992,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3009,19 +3015,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="C109" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3032,19 +3038,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3055,19 +3061,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3078,19 +3084,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3101,19 +3107,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3124,599 +3130,691 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>136</v>
+        <v>34</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>136</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>136</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F136" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="G136" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>34</v>
+        <v>138</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>34</v>
+        <v>138</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E139" s="2" t="s">
+      <c r="C142" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="2" t="s">
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_112.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_112.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="149">
   <si>
     <t>Sezione</t>
   </si>
@@ -428,7 +428,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -526,7 +529,7 @@
     <col min="4" max="4" width="32.5859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3708,7 +3711,7 @@
         <v>135</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>17</v>
@@ -3728,10 +3731,10 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>17</v>
@@ -3740,7 +3743,7 @@
         <v>91</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3751,10 +3754,10 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
@@ -3763,7 +3766,7 @@
         <v>91</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>24</v>
@@ -3774,10 +3777,10 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>17</v>
@@ -3786,7 +3789,7 @@
         <v>32</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3797,10 +3800,10 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>17</v>
@@ -3809,7 +3812,7 @@
         <v>103</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_112.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_112.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="148">
   <si>
     <t>Sezione</t>
   </si>
@@ -429,9 +429,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3711,7 +3708,7 @@
         <v>135</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>17</v>
@@ -3731,10 +3728,10 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>17</v>
@@ -3743,7 +3740,7 @@
         <v>91</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3754,10 +3751,10 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
@@ -3766,7 +3763,7 @@
         <v>91</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>24</v>
@@ -3777,10 +3774,10 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>17</v>
@@ -3789,7 +3786,7 @@
         <v>32</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3800,10 +3797,10 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>17</v>
@@ -3812,7 +3809,7 @@
         <v>103</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_112.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_112.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="149">
   <si>
     <t>Sezione</t>
   </si>
@@ -429,6 +429,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3708,7 +3711,7 @@
         <v>135</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>17</v>
@@ -3728,10 +3731,10 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>17</v>
@@ -3740,7 +3743,7 @@
         <v>91</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3751,10 +3754,10 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
@@ -3763,7 +3766,7 @@
         <v>91</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>24</v>
@@ -3774,10 +3777,10 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>17</v>
@@ -3786,7 +3789,7 @@
         <v>32</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3797,10 +3800,10 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>17</v>
@@ -3809,7 +3812,7 @@
         <v>103</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_112.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_112.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="159">
   <si>
     <t>Sezione</t>
   </si>
@@ -306,6 +306,36 @@
   </si>
   <si>
     <t>22,7</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Padre</t>
@@ -517,7 +547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H143"/>
+  <dimension ref="A1:H157"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -527,7 +557,7 @@
     <col min="2" max="2" width="53.12890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="32.5859375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2121,22 +2151,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>34</v>
@@ -2144,22 +2174,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>34</v>
@@ -2167,19 +2197,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2190,22 +2220,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>34</v>
@@ -2213,22 +2243,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>34</v>
@@ -2236,22 +2266,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>34</v>
@@ -2259,19 +2289,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2282,22 +2312,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>34</v>
@@ -2305,19 +2335,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2328,22 +2358,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>34</v>
@@ -2351,22 +2381,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>34</v>
@@ -2374,19 +2404,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2397,22 +2427,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>34</v>
@@ -2420,19 +2450,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2443,22 +2473,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>34</v>
@@ -2466,22 +2496,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>34</v>
@@ -2489,22 +2519,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>34</v>
@@ -2512,19 +2542,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2535,22 +2565,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>34</v>
@@ -2558,22 +2588,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>34</v>
@@ -2581,19 +2611,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2604,22 +2634,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>34</v>
@@ -2627,19 +2657,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2650,22 +2680,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>34</v>
@@ -2673,22 +2703,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>34</v>
@@ -2696,19 +2726,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2719,19 +2749,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2742,19 +2772,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2765,19 +2795,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2788,22 +2818,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>34</v>
@@ -2811,19 +2841,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D100" s="2" t="s">
+      <c r="E100" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2834,22 +2864,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>34</v>
@@ -2857,22 +2887,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>34</v>
@@ -2880,19 +2910,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2903,19 +2933,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2926,19 +2956,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2949,19 +2979,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2972,19 +3002,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2995,19 +3025,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3018,16 +3048,16 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>118</v>
@@ -3041,19 +3071,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="C110" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3064,19 +3094,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3087,19 +3117,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3110,19 +3140,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3133,19 +3163,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3156,19 +3186,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3179,19 +3209,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>134</v>
+        <v>63</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3202,622 +3232,944 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E126" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F126" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>146</v>
+        <v>67</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F147" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E143" s="2" t="s">
+      <c r="G147" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F143" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G143" s="2" t="s">
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_112.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_112.xlsx
@@ -3238,7 +3238,7 @@
         <v>123</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>113</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_112.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_112.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="161">
   <si>
     <t>Sezione</t>
   </si>
@@ -158,6 +158,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -212,13 +218,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -547,7 +553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H157"/>
+  <dimension ref="A1:H162"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1099,7 +1105,7 @@
         <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>44</v>
@@ -1191,7 +1197,7 @@
         <v>56</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>44</v>
@@ -1306,7 +1312,7 @@
         <v>66</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>44</v>
@@ -1329,7 +1335,7 @@
         <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>44</v>
@@ -1398,7 +1404,7 @@
         <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>44</v>
@@ -1513,7 +1519,7 @@
         <v>84</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>44</v>
@@ -1585,10 +1591,10 @@
         <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1602,13 +1608,13 @@
         <v>41</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>94</v>
@@ -1622,22 +1628,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>34</v>
@@ -1645,22 +1651,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>34</v>
@@ -1668,19 +1674,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1691,19 +1697,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1714,19 +1720,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1737,19 +1743,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1760,19 +1766,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1783,22 +1789,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>34</v>
@@ -1806,19 +1812,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1829,19 +1835,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>21</v>
@@ -1852,22 +1858,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>34</v>
@@ -1875,22 +1881,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>34</v>
@@ -1898,22 +1904,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>34</v>
@@ -1921,19 +1927,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1944,19 +1950,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1967,19 +1973,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1990,22 +1996,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>34</v>
@@ -2013,19 +2019,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2036,19 +2042,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>21</v>
@@ -2059,22 +2065,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>34</v>
@@ -2082,22 +2088,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>34</v>
@@ -2105,22 +2111,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>34</v>
@@ -2128,19 +2134,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2151,19 +2157,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E70" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2174,22 +2180,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>34</v>
@@ -2197,19 +2203,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2220,19 +2226,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>21</v>
@@ -2243,22 +2249,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>34</v>
@@ -2266,22 +2272,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>34</v>
@@ -2289,22 +2295,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>34</v>
@@ -2312,22 +2318,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>34</v>
@@ -2335,19 +2341,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2358,19 +2364,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2381,19 +2387,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2404,19 +2410,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2427,22 +2433,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>34</v>
@@ -2450,19 +2456,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2473,22 +2479,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>34</v>
@@ -2496,19 +2502,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>21</v>
@@ -2519,19 +2525,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2542,22 +2548,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>34</v>
@@ -2565,22 +2571,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>34</v>
@@ -2588,19 +2594,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2611,19 +2617,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2634,22 +2640,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>34</v>
@@ -2657,19 +2663,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2680,22 +2686,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>34</v>
@@ -2703,19 +2709,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>21</v>
@@ -2726,19 +2732,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2749,22 +2755,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>34</v>
@@ -2772,22 +2778,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>34</v>
@@ -2795,19 +2801,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2818,22 +2824,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>34</v>
@@ -2841,19 +2847,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2864,22 +2870,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>34</v>
@@ -2887,19 +2893,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>21</v>
@@ -2913,7 +2919,7 @@
         <v>110</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -2922,7 +2928,7 @@
         <v>111</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2936,19 +2942,19 @@
         <v>110</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>34</v>
@@ -2959,19 +2965,19 @@
         <v>110</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>34</v>
@@ -2979,10 +2985,10 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -2991,7 +2997,7 @@
         <v>113</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3002,19 +3008,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3025,19 +3031,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3048,16 +3054,16 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>118</v>
@@ -3071,19 +3077,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3094,19 +3100,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3117,19 +3123,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3140,19 +3146,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3163,19 +3169,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3186,19 +3192,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3209,19 +3215,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3232,19 +3238,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3255,19 +3261,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3278,19 +3284,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3301,19 +3307,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3324,19 +3330,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3347,10 +3353,10 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -3359,7 +3365,7 @@
         <v>113</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3370,10 +3376,10 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
@@ -3382,7 +3388,7 @@
         <v>113</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3393,19 +3399,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3416,19 +3422,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3439,19 +3445,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3462,19 +3468,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="C127" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3485,19 +3491,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3508,19 +3514,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3531,19 +3537,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3554,622 +3560,737 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>148</v>
+        <v>34</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>148</v>
+        <v>34</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>148</v>
+        <v>34</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E134" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>148</v>
+        <v>34</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B157" s="2" t="s">
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E157" s="2" t="s">
+      <c r="C161" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="2" t="s">
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_112.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_112.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="163">
   <si>
     <t>Sezione</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -553,7 +559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H162"/>
+  <dimension ref="A1:H166"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1381,7 +1387,7 @@
         <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>44</v>
@@ -1404,7 +1410,7 @@
         <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>44</v>
@@ -1542,7 +1548,7 @@
         <v>86</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>44</v>
@@ -1614,10 +1620,10 @@
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1631,13 +1637,13 @@
         <v>41</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>96</v>
@@ -1651,22 +1657,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>34</v>
@@ -1674,22 +1680,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>34</v>
@@ -1697,19 +1703,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1720,19 +1726,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1743,19 +1749,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1766,19 +1772,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1789,19 +1795,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1812,19 +1818,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1835,22 +1841,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>34</v>
@@ -1858,22 +1864,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>34</v>
@@ -1881,22 +1887,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>34</v>
@@ -1904,19 +1910,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>21</v>
@@ -1927,22 +1933,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>34</v>
@@ -1950,19 +1956,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1973,19 +1979,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1996,22 +2002,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>34</v>
@@ -2019,19 +2025,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2042,19 +2048,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>21</v>
@@ -2065,19 +2071,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2088,19 +2094,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>21</v>
@@ -2111,22 +2117,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>34</v>
@@ -2134,22 +2140,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>34</v>
@@ -2157,22 +2163,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>34</v>
@@ -2180,19 +2186,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2203,19 +2209,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E72" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2226,22 +2232,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>34</v>
@@ -2249,19 +2255,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2272,19 +2278,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>21</v>
@@ -2295,22 +2301,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>34</v>
@@ -2318,22 +2324,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>34</v>
@@ -2341,22 +2347,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>34</v>
@@ -2364,22 +2370,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>34</v>
@@ -2387,19 +2393,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2410,19 +2416,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2433,19 +2439,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2456,19 +2462,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2479,19 +2485,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2502,22 +2508,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>34</v>
@@ -2525,19 +2531,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2548,19 +2554,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>21</v>
@@ -2571,22 +2577,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>34</v>
@@ -2594,22 +2600,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>34</v>
@@ -2617,22 +2623,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>34</v>
@@ -2640,19 +2646,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2663,19 +2669,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2686,22 +2692,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>34</v>
@@ -2709,22 +2715,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>34</v>
@@ -2732,22 +2738,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>34</v>
@@ -2755,22 +2761,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>34</v>
@@ -2778,19 +2784,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>21</v>
@@ -2801,19 +2807,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2824,22 +2830,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>34</v>
@@ -2847,22 +2853,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>34</v>
@@ -2870,19 +2876,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2893,22 +2899,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>34</v>
@@ -2916,19 +2922,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2939,22 +2945,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>34</v>
@@ -2962,19 +2968,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>21</v>
@@ -2988,7 +2994,7 @@
         <v>112</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -2997,7 +3003,7 @@
         <v>113</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3011,19 +3017,19 @@
         <v>112</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>34</v>
@@ -3034,19 +3040,19 @@
         <v>112</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>34</v>
@@ -3054,10 +3060,10 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -3066,7 +3072,7 @@
         <v>115</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3077,19 +3083,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3100,19 +3106,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3123,19 +3129,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3146,19 +3152,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3169,10 +3175,10 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
@@ -3181,7 +3187,7 @@
         <v>115</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3192,19 +3198,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3215,19 +3221,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3238,19 +3244,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3261,19 +3267,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3284,19 +3290,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3307,19 +3313,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3330,19 +3336,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3353,19 +3359,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3376,19 +3382,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3399,19 +3405,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3422,19 +3428,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3445,10 +3451,10 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -3457,7 +3463,7 @@
         <v>115</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3468,10 +3474,10 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3480,7 +3486,7 @@
         <v>115</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3491,19 +3497,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3514,19 +3520,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3537,19 +3543,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="C130" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3560,19 +3566,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3583,19 +3589,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3606,19 +3612,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3629,19 +3635,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3652,645 +3658,737 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E137" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F158" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G158" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B162" s="2" t="s">
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E162" s="2" t="s">
+      <c r="C165" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G162" s="2" t="s">
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_112.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_112.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="165">
   <si>
     <t>Sezione</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -559,7 +565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H166"/>
+  <dimension ref="A1:H170"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1571,7 +1577,7 @@
         <v>88</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>44</v>
@@ -1643,10 +1649,10 @@
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1660,13 +1666,13 @@
         <v>41</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>98</v>
@@ -1680,22 +1686,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>34</v>
@@ -1703,22 +1709,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>34</v>
@@ -1726,19 +1732,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1749,19 +1755,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1772,19 +1778,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1795,19 +1801,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1818,19 +1824,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1841,19 +1847,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1864,22 +1870,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>34</v>
@@ -1887,22 +1893,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>34</v>
@@ -1910,22 +1916,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>34</v>
@@ -1933,19 +1939,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>21</v>
@@ -1956,22 +1962,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>34</v>
@@ -1979,19 +1985,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2002,22 +2008,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>34</v>
@@ -2025,22 +2031,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>34</v>
@@ -2048,19 +2054,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>21</v>
@@ -2071,19 +2077,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2094,19 +2100,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>21</v>
@@ -2117,19 +2123,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2140,19 +2146,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>21</v>
@@ -2163,22 +2169,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>34</v>
@@ -2186,22 +2192,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>34</v>
@@ -2209,22 +2215,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>34</v>
@@ -2232,19 +2238,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2255,19 +2261,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E74" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2278,22 +2284,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>34</v>
@@ -2301,19 +2307,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2324,19 +2330,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>21</v>
@@ -2347,22 +2353,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>34</v>
@@ -2370,22 +2376,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>34</v>
@@ -2393,22 +2399,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>34</v>
@@ -2416,22 +2422,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>34</v>
@@ -2439,19 +2445,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2462,19 +2468,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2485,19 +2491,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2508,19 +2514,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2531,19 +2537,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2554,22 +2560,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>34</v>
@@ -2577,19 +2583,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2600,19 +2606,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>21</v>
@@ -2623,22 +2629,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>34</v>
@@ -2646,22 +2652,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>34</v>
@@ -2669,22 +2675,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>34</v>
@@ -2692,22 +2698,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>34</v>
@@ -2715,19 +2721,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2738,19 +2744,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>21</v>
@@ -2761,22 +2767,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>34</v>
@@ -2784,22 +2790,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>34</v>
@@ -2807,22 +2813,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>34</v>
@@ -2830,22 +2836,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>34</v>
@@ -2853,19 +2859,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>21</v>
@@ -2876,19 +2882,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2899,22 +2905,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>34</v>
@@ -2922,22 +2928,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>34</v>
@@ -2945,19 +2951,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2968,22 +2974,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>34</v>
@@ -2991,19 +2997,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3014,22 +3020,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>34</v>
@@ -3037,19 +3043,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>21</v>
@@ -3063,7 +3069,7 @@
         <v>114</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -3072,7 +3078,7 @@
         <v>115</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3086,19 +3092,19 @@
         <v>114</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>34</v>
@@ -3109,19 +3115,19 @@
         <v>114</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>34</v>
@@ -3129,10 +3135,10 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
@@ -3141,7 +3147,7 @@
         <v>117</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3152,19 +3158,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3175,19 +3181,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3198,19 +3204,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3221,19 +3227,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3244,10 +3250,10 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
@@ -3256,7 +3262,7 @@
         <v>117</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3267,19 +3273,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3290,19 +3296,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3313,19 +3319,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3336,19 +3342,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3359,19 +3365,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3382,19 +3388,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3405,19 +3411,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3428,19 +3434,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3451,19 +3457,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3474,19 +3480,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3497,19 +3503,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3520,10 +3526,10 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -3532,7 +3538,7 @@
         <v>117</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3543,10 +3549,10 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -3555,7 +3561,7 @@
         <v>117</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3566,19 +3572,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3589,19 +3595,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3612,19 +3618,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="C133" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3635,19 +3641,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3658,19 +3664,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3681,19 +3687,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3704,19 +3710,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3727,668 +3733,760 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>152</v>
+        <v>34</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>152</v>
+        <v>34</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E140" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>152</v>
+        <v>34</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F162" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G162" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B166" s="2" t="s">
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E166" s="2" t="s">
+      <c r="C169" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F166" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G166" s="2" t="s">
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_112.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_112.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="197">
   <si>
     <t>Sezione</t>
   </si>
@@ -137,6 +137,96 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Luogo Redazione</t>
+  </si>
+  <si>
+    <t>Luogo</t>
+  </si>
+  <si>
+    <t>evento.luogoRedazione</t>
+  </si>
+  <si>
+    <t>luogo</t>
+  </si>
+  <si>
+    <t>evento.redattoNellaCasaComunale,!=,false</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
+    <t>Indirizzo</t>
+  </si>
+  <si>
+    <t>indirizzo</t>
+  </si>
+  <si>
+    <t>Numero Civico</t>
+  </si>
+  <si>
+    <t>numeroCivico</t>
+  </si>
+  <si>
+    <t>Data Redazione Nascita</t>
+  </si>
+  <si>
+    <t>evento.datiDiNascita</t>
+  </si>
+  <si>
+    <t>dataRedazione</t>
+  </si>
+  <si>
+    <t>Ora Redazione</t>
+  </si>
+  <si>
+    <t>oraRedazione</t>
+  </si>
+  <si>
+    <t>Minuti Redazione</t>
+  </si>
+  <si>
+    <t>minutiRedazione</t>
+  </si>
+  <si>
     <t>Dichiarante</t>
   </si>
   <si>
@@ -212,9 +302,6 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
-    <t>Località estera</t>
-  </si>
-  <si>
     <t>localitaEsteraNascita</t>
   </si>
   <si>
@@ -317,6 +404,15 @@
     <t>datiEssenzialiProcura</t>
   </si>
   <si>
+    <t>Ufficiale dello Stato Civile</t>
+  </si>
+  <si>
+    <t>evento.ufficialeStatoCivile</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
     <t>Madre</t>
   </si>
   <si>
@@ -371,9 +467,6 @@
     <t>Assegnazione cognome</t>
   </si>
   <si>
-    <t>evento.datiDiNascita</t>
-  </si>
-  <si>
     <t>sceltaCognome</t>
   </si>
   <si>
@@ -479,9 +572,6 @@
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
   </si>
   <si>
-    <t>Firmatario</t>
-  </si>
-  <si>
     <t>Dettagli evento</t>
   </si>
   <si>
@@ -507,6 +597,12 @@
   </si>
   <si>
     <t>tipoAccertamento</t>
+  </si>
+  <si>
+    <t>Redatto nella casa comunale</t>
+  </si>
+  <si>
+    <t>redattoNellaCasaComunale</t>
   </si>
 </sst>
 </file>
@@ -565,13 +661,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H170"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="23.453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.76953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="53.12890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="32.5859375" customWidth="true" bestFit="true"/>
@@ -1045,22 +1141,22 @@
         <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22">
@@ -1068,22 +1164,22 @@
         <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="E22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -1091,22 +1187,22 @@
         <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
@@ -1114,22 +1210,22 @@
         <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
@@ -1137,22 +1233,22 @@
         <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26">
@@ -1160,22 +1256,22 @@
         <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27">
@@ -1183,22 +1279,22 @@
         <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
@@ -1206,22 +1302,22 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -1229,22 +1325,22 @@
         <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30">
@@ -1252,22 +1348,22 @@
         <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31">
@@ -1275,22 +1371,22 @@
         <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32">
@@ -1298,22 +1394,22 @@
         <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33">
@@ -1321,39 +1417,39 @@
         <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1364,19 +1460,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1387,19 +1483,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1410,19 +1506,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1433,19 +1529,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1456,19 +1552,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1479,19 +1575,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1502,19 +1598,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1525,19 +1621,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1548,19 +1644,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1571,19 +1667,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1594,19 +1690,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1617,19 +1713,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1640,19 +1736,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1663,19 +1759,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1686,19 +1782,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1709,22 +1805,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>34</v>
@@ -1732,19 +1828,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1755,19 +1851,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1778,19 +1874,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1801,19 +1897,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1824,19 +1920,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1847,19 +1943,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1870,19 +1966,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1893,22 +1989,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>34</v>
@@ -1916,19 +2012,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1939,22 +2035,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>34</v>
@@ -1962,22 +2058,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>34</v>
@@ -1985,19 +2081,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2008,620 +2104,620 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="E81" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>34</v>
@@ -2629,19 +2725,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2652,22 +2748,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>34</v>
@@ -2675,22 +2771,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>34</v>
@@ -2698,19 +2794,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2721,19 +2817,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2744,22 +2840,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>34</v>
@@ -2767,22 +2863,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>34</v>
@@ -2790,22 +2886,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>34</v>
@@ -2813,22 +2909,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>34</v>
@@ -2836,22 +2932,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>34</v>
@@ -2859,19 +2955,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>21</v>
@@ -2882,19 +2978,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2905,22 +3001,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>34</v>
@@ -2928,19 +3024,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>21</v>
@@ -2951,22 +3047,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>34</v>
@@ -2974,19 +3070,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2997,22 +3093,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>34</v>
@@ -3020,19 +3116,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3043,19 +3139,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>21</v>
@@ -3066,19 +3162,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3089,19 +3185,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>21</v>
@@ -3112,19 +3208,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>21</v>
@@ -3135,19 +3231,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3158,19 +3254,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3181,19 +3277,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3204,19 +3300,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3227,22 +3323,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>34</v>
@@ -3250,19 +3346,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3273,22 +3369,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>34</v>
@@ -3296,22 +3392,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>34</v>
@@ -3319,22 +3415,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>34</v>
@@ -3342,19 +3438,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3365,19 +3461,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3388,19 +3484,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3411,19 +3507,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3434,19 +3530,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3457,19 +3553,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3480,19 +3576,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3503,22 +3599,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>34</v>
@@ -3526,19 +3622,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3549,22 +3645,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>34</v>
@@ -3572,22 +3668,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>34</v>
@@ -3595,19 +3691,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3618,19 +3714,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3641,22 +3737,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>34</v>
@@ -3664,22 +3760,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>34</v>
@@ -3687,19 +3783,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3710,22 +3806,22 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>34</v>
@@ -3733,19 +3829,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3756,22 +3852,22 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="E139" s="2" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>34</v>
@@ -3779,19 +3875,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3802,617 +3898,617 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4423,22 +4519,22 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
         <v>34</v>
@@ -4446,19 +4542,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>32</v>
+        <v>149</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4469,24 +4565,944 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D170" s="2" t="s">
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E170" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G170" s="2" t="s">
+      <c r="C203" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_112.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_112.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="197">
   <si>
     <t>Sezione</t>
   </si>
@@ -661,7 +661,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H209"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2429,7 +2429,7 @@
         <v>130</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2438,7 +2438,7 @@
         <v>131</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2452,7 +2452,7 @@
         <v>130</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2461,7 +2461,7 @@
         <v>131</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2475,7 +2475,7 @@
         <v>130</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -2484,7 +2484,7 @@
         <v>131</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2498,7 +2498,7 @@
         <v>130</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -2507,7 +2507,7 @@
         <v>131</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2521,7 +2521,7 @@
         <v>130</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -2530,7 +2530,7 @@
         <v>131</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2544,7 +2544,7 @@
         <v>130</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -2553,7 +2553,7 @@
         <v>131</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2567,7 +2567,7 @@
         <v>130</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -2576,7 +2576,7 @@
         <v>131</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2590,7 +2590,7 @@
         <v>130</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -2599,7 +2599,7 @@
         <v>131</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2613,7 +2613,7 @@
         <v>130</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -2622,7 +2622,7 @@
         <v>131</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2636,7 +2636,7 @@
         <v>130</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -2645,7 +2645,7 @@
         <v>131</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2659,7 +2659,7 @@
         <v>130</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
@@ -2668,7 +2668,7 @@
         <v>131</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2679,25 +2679,25 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89">
@@ -2705,19 +2705,19 @@
         <v>133</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>34</v>
@@ -2728,16 +2728,16 @@
         <v>133</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2751,16 +2751,16 @@
         <v>133</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2774,7 +2774,7 @@
         <v>133</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
@@ -2783,7 +2783,7 @@
         <v>134</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2797,7 +2797,7 @@
         <v>133</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
@@ -2806,7 +2806,7 @@
         <v>134</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2820,7 +2820,7 @@
         <v>133</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
@@ -2829,7 +2829,7 @@
         <v>134</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2843,16 +2843,16 @@
         <v>133</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2866,7 +2866,7 @@
         <v>133</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -2875,10 +2875,10 @@
         <v>134</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>34</v>
@@ -2889,7 +2889,7 @@
         <v>133</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -2898,10 +2898,10 @@
         <v>134</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>34</v>
@@ -2912,7 +2912,7 @@
         <v>133</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -2921,10 +2921,10 @@
         <v>134</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>34</v>
@@ -2935,7 +2935,7 @@
         <v>133</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
@@ -2944,7 +2944,7 @@
         <v>134</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>21</v>
@@ -2958,19 +2958,19 @@
         <v>133</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>34</v>
@@ -2981,7 +2981,7 @@
         <v>133</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>17</v>
@@ -2990,7 +2990,7 @@
         <v>134</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -3004,19 +3004,19 @@
         <v>133</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>34</v>
@@ -3027,7 +3027,7 @@
         <v>133</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -3036,7 +3036,7 @@
         <v>134</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>21</v>
@@ -3050,7 +3050,7 @@
         <v>133</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -3059,10 +3059,10 @@
         <v>134</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>34</v>
@@ -3073,7 +3073,7 @@
         <v>133</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -3082,10 +3082,10 @@
         <v>134</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>34</v>
@@ -3096,7 +3096,7 @@
         <v>133</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -3105,10 +3105,10 @@
         <v>134</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>34</v>
@@ -3119,7 +3119,7 @@
         <v>133</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3128,10 +3128,10 @@
         <v>134</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>34</v>
@@ -3142,7 +3142,7 @@
         <v>133</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -3151,10 +3151,10 @@
         <v>134</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>34</v>
@@ -3165,7 +3165,7 @@
         <v>133</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -3174,10 +3174,10 @@
         <v>134</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>34</v>
@@ -3188,7 +3188,7 @@
         <v>133</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -3197,7 +3197,7 @@
         <v>134</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>21</v>
@@ -3211,19 +3211,19 @@
         <v>133</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>34</v>
@@ -3234,7 +3234,7 @@
         <v>133</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
@@ -3243,7 +3243,7 @@
         <v>134</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3257,7 +3257,7 @@
         <v>133</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
@@ -3266,7 +3266,7 @@
         <v>134</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3280,16 +3280,16 @@
         <v>133</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3303,7 +3303,7 @@
         <v>133</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -3312,10 +3312,10 @@
         <v>134</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>34</v>
@@ -3326,7 +3326,7 @@
         <v>133</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -3335,10 +3335,10 @@
         <v>134</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>34</v>
@@ -3349,7 +3349,7 @@
         <v>133</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
@@ -3358,10 +3358,10 @@
         <v>134</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>34</v>
@@ -3372,7 +3372,7 @@
         <v>133</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
@@ -3381,7 +3381,7 @@
         <v>134</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>21</v>
@@ -3392,22 +3392,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>145</v>
+        <v>75</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>34</v>
@@ -3418,19 +3418,19 @@
         <v>146</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>34</v>
@@ -3441,16 +3441,16 @@
         <v>146</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3464,16 +3464,16 @@
         <v>146</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3487,7 +3487,7 @@
         <v>146</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
@@ -3496,7 +3496,7 @@
         <v>147</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3510,7 +3510,7 @@
         <v>146</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>17</v>
@@ -3519,7 +3519,7 @@
         <v>147</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3533,7 +3533,7 @@
         <v>146</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
@@ -3542,7 +3542,7 @@
         <v>147</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3556,16 +3556,16 @@
         <v>146</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3579,7 +3579,7 @@
         <v>146</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3588,10 +3588,10 @@
         <v>147</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>34</v>
@@ -3602,7 +3602,7 @@
         <v>146</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -3611,10 +3611,10 @@
         <v>147</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>34</v>
@@ -3625,7 +3625,7 @@
         <v>146</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -3634,10 +3634,10 @@
         <v>147</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>34</v>
@@ -3648,7 +3648,7 @@
         <v>146</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -3657,7 +3657,7 @@
         <v>147</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>21</v>
@@ -3671,19 +3671,19 @@
         <v>146</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>34</v>
@@ -3694,7 +3694,7 @@
         <v>146</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
@@ -3703,7 +3703,7 @@
         <v>147</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3717,19 +3717,19 @@
         <v>146</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>34</v>
@@ -3740,7 +3740,7 @@
         <v>146</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
@@ -3749,7 +3749,7 @@
         <v>147</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>21</v>
@@ -3763,7 +3763,7 @@
         <v>146</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
@@ -3772,10 +3772,10 @@
         <v>147</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>34</v>
@@ -3786,7 +3786,7 @@
         <v>146</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -3795,10 +3795,10 @@
         <v>147</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>34</v>
@@ -3809,7 +3809,7 @@
         <v>146</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -3818,10 +3818,10 @@
         <v>147</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>34</v>
@@ -3832,7 +3832,7 @@
         <v>146</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -3841,10 +3841,10 @@
         <v>147</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>34</v>
@@ -3855,7 +3855,7 @@
         <v>146</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
@@ -3864,10 +3864,10 @@
         <v>147</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>34</v>
@@ -3878,7 +3878,7 @@
         <v>146</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
@@ -3887,10 +3887,10 @@
         <v>147</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>34</v>
@@ -3901,7 +3901,7 @@
         <v>146</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
@@ -3910,7 +3910,7 @@
         <v>147</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>21</v>
@@ -3924,19 +3924,19 @@
         <v>146</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>34</v>
@@ -3947,7 +3947,7 @@
         <v>146</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>17</v>
@@ -3956,7 +3956,7 @@
         <v>147</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3970,7 +3970,7 @@
         <v>146</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>17</v>
@@ -3979,7 +3979,7 @@
         <v>147</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3993,16 +3993,16 @@
         <v>146</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -4016,7 +4016,7 @@
         <v>146</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -4025,10 +4025,10 @@
         <v>147</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>34</v>
@@ -4039,7 +4039,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
@@ -4048,10 +4048,10 @@
         <v>147</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>34</v>
@@ -4062,7 +4062,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -4071,10 +4071,10 @@
         <v>147</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>34</v>
@@ -4085,7 +4085,7 @@
         <v>146</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
@@ -4094,7 +4094,7 @@
         <v>147</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>21</v>
@@ -4105,22 +4105,22 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>145</v>
+        <v>75</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>34</v>
@@ -4131,16 +4131,16 @@
         <v>148</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4154,16 +4154,16 @@
         <v>148</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4177,7 +4177,7 @@
         <v>148</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
@@ -4186,7 +4186,7 @@
         <v>65</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4200,16 +4200,16 @@
         <v>148</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4223,16 +4223,16 @@
         <v>148</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4246,7 +4246,7 @@
         <v>148</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>17</v>
@@ -4255,7 +4255,7 @@
         <v>149</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4269,16 +4269,16 @@
         <v>148</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4292,7 +4292,7 @@
         <v>148</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>17</v>
@@ -4301,7 +4301,7 @@
         <v>65</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4315,16 +4315,16 @@
         <v>148</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4338,7 +4338,7 @@
         <v>148</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>17</v>
@@ -4347,7 +4347,7 @@
         <v>149</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4361,16 +4361,16 @@
         <v>148</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4384,7 +4384,7 @@
         <v>148</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
@@ -4393,7 +4393,7 @@
         <v>149</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4407,7 +4407,7 @@
         <v>148</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
@@ -4416,7 +4416,7 @@
         <v>149</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4430,7 +4430,7 @@
         <v>148</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
@@ -4439,7 +4439,7 @@
         <v>149</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4453,16 +4453,16 @@
         <v>148</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4476,16 +4476,16 @@
         <v>148</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4499,7 +4499,7 @@
         <v>148</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
@@ -4508,7 +4508,7 @@
         <v>149</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4522,7 +4522,7 @@
         <v>148</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
@@ -4531,7 +4531,7 @@
         <v>149</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4545,7 +4545,7 @@
         <v>148</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
@@ -4554,7 +4554,7 @@
         <v>149</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4568,16 +4568,16 @@
         <v>148</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4591,7 +4591,7 @@
         <v>148</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
@@ -4600,7 +4600,7 @@
         <v>65</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4611,19 +4611,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>65</v>
+        <v>168</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4637,7 +4637,7 @@
         <v>166</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>17</v>
@@ -4646,7 +4646,7 @@
         <v>168</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4660,7 +4660,7 @@
         <v>166</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>17</v>
@@ -4669,7 +4669,7 @@
         <v>168</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4683,7 +4683,7 @@
         <v>166</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>17</v>
@@ -4692,7 +4692,7 @@
         <v>168</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4706,7 +4706,7 @@
         <v>166</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>17</v>
@@ -4715,7 +4715,7 @@
         <v>168</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4729,7 +4729,7 @@
         <v>166</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>17</v>
@@ -4738,7 +4738,7 @@
         <v>168</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -4752,7 +4752,7 @@
         <v>166</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>17</v>
@@ -4761,7 +4761,7 @@
         <v>168</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -4772,25 +4772,25 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>34</v>
+        <v>185</v>
       </c>
     </row>
     <row r="180">
@@ -4798,19 +4798,19 @@
         <v>182</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>183</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>185</v>
@@ -4821,16 +4821,16 @@
         <v>182</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>183</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
@@ -4844,16 +4844,16 @@
         <v>182</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>183</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
@@ -4867,7 +4867,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>17</v>
@@ -4876,7 +4876,7 @@
         <v>183</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
@@ -4890,7 +4890,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>17</v>
@@ -4899,7 +4899,7 @@
         <v>183</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
@@ -4913,7 +4913,7 @@
         <v>182</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>17</v>
@@ -4922,7 +4922,7 @@
         <v>183</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
@@ -4936,16 +4936,16 @@
         <v>182</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>183</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
@@ -4959,7 +4959,7 @@
         <v>182</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
@@ -4968,10 +4968,10 @@
         <v>183</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>185</v>
@@ -4982,7 +4982,7 @@
         <v>182</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
@@ -4991,10 +4991,10 @@
         <v>183</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>185</v>
@@ -5005,7 +5005,7 @@
         <v>182</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
@@ -5014,10 +5014,10 @@
         <v>183</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="G189" s="2" t="s">
         <v>185</v>
@@ -5028,7 +5028,7 @@
         <v>182</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
@@ -5037,7 +5037,7 @@
         <v>183</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>184</v>
@@ -5051,19 +5051,19 @@
         <v>182</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>183</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>185</v>
@@ -5074,7 +5074,7 @@
         <v>182</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>17</v>
@@ -5083,7 +5083,7 @@
         <v>183</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
@@ -5097,19 +5097,19 @@
         <v>182</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>183</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="G193" s="2" t="s">
         <v>185</v>
@@ -5120,7 +5120,7 @@
         <v>182</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
@@ -5129,7 +5129,7 @@
         <v>183</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>184</v>
@@ -5143,7 +5143,7 @@
         <v>182</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
@@ -5152,10 +5152,10 @@
         <v>183</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
         <v>185</v>
@@ -5166,7 +5166,7 @@
         <v>182</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
@@ -5175,10 +5175,10 @@
         <v>183</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="G196" s="2" t="s">
         <v>185</v>
@@ -5189,7 +5189,7 @@
         <v>182</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
@@ -5198,10 +5198,10 @@
         <v>183</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>185</v>
@@ -5212,7 +5212,7 @@
         <v>182</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
@@ -5221,10 +5221,10 @@
         <v>183</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>185</v>
@@ -5235,7 +5235,7 @@
         <v>182</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
@@ -5244,10 +5244,10 @@
         <v>183</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>185</v>
@@ -5258,7 +5258,7 @@
         <v>182</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
@@ -5267,10 +5267,10 @@
         <v>183</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="G200" s="2" t="s">
         <v>185</v>
@@ -5281,7 +5281,7 @@
         <v>182</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
@@ -5290,7 +5290,7 @@
         <v>183</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>184</v>
@@ -5304,19 +5304,19 @@
         <v>182</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>183</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
         <v>185</v>
@@ -5327,7 +5327,7 @@
         <v>182</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>17</v>
@@ -5336,7 +5336,7 @@
         <v>183</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
@@ -5350,7 +5350,7 @@
         <v>182</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>17</v>
@@ -5359,7 +5359,7 @@
         <v>183</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
@@ -5370,25 +5370,25 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>124</v>
+        <v>188</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>185</v>
+        <v>34</v>
       </c>
     </row>
     <row r="206">
@@ -5396,19 +5396,19 @@
         <v>186</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>126</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G206" s="2" t="s">
         <v>34</v>
@@ -5419,19 +5419,19 @@
         <v>186</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
         <v>34</v>
@@ -5442,16 +5442,16 @@
         <v>186</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
@@ -5465,44 +5465,21 @@
         <v>186</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G210" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_112.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_112.xlsx
@@ -1765,7 +1765,7 @@
         <v>99</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>74</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_112.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_112.xlsx
@@ -5054,7 +5054,7 @@
         <v>97</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>183</v>
@@ -5077,7 +5077,7 @@
         <v>99</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>183</v>
@@ -5086,7 +5086,7 @@
         <v>100</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="G192" s="2" t="s">
         <v>185</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_112.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_112.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="201">
   <si>
     <t>Sezione</t>
   </si>
@@ -258,6 +258,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -661,7 +673,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H219"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1558,7 +1570,7 @@
         <v>82</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>74</v>
@@ -1581,7 +1593,7 @@
         <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>74</v>
@@ -1627,7 +1639,7 @@
         <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>74</v>
@@ -1650,7 +1662,7 @@
         <v>90</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>74</v>
@@ -1716,7 +1728,7 @@
         <v>71</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
@@ -1725,7 +1737,7 @@
         <v>74</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1739,7 +1751,7 @@
         <v>71</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
@@ -1748,7 +1760,7 @@
         <v>74</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1762,7 +1774,7 @@
         <v>71</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -1995,7 +2007,7 @@
         <v>119</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>74</v>
@@ -2018,7 +2030,7 @@
         <v>121</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>74</v>
@@ -2067,10 +2079,10 @@
         <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2084,16 +2096,16 @@
         <v>71</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2104,65 +2116,65 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="E64" s="2" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2173,19 +2185,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2196,19 +2208,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2219,19 +2231,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2242,19 +2254,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2265,19 +2277,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2288,19 +2300,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2311,19 +2323,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2334,19 +2346,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2357,19 +2369,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2380,19 +2392,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2403,19 +2415,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2426,19 +2438,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2449,19 +2461,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2472,19 +2484,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2495,19 +2507,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2518,19 +2530,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2541,19 +2553,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2564,19 +2576,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2587,19 +2599,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2610,19 +2622,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2633,19 +2645,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2656,19 +2668,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2679,114 +2691,114 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>34</v>
@@ -2794,19 +2806,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2817,19 +2829,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2840,19 +2852,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2863,22 +2875,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>34</v>
@@ -2886,22 +2898,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>34</v>
@@ -2909,22 +2921,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>34</v>
@@ -2932,22 +2944,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>34</v>
@@ -2955,19 +2967,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2978,19 +2990,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -3001,19 +3013,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>21</v>
@@ -3024,22 +3036,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>34</v>
@@ -3047,22 +3059,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>34</v>
@@ -3070,19 +3082,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>21</v>
@@ -3093,19 +3105,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3116,22 +3128,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>34</v>
@@ -3139,22 +3151,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>34</v>
@@ -3162,19 +3174,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>21</v>
@@ -3185,22 +3197,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>34</v>
@@ -3208,22 +3220,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>34</v>
@@ -3231,19 +3243,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3254,22 +3266,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>34</v>
@@ -3277,19 +3289,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3300,19 +3312,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="E115" s="2" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>21</v>
@@ -3323,22 +3335,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>34</v>
@@ -3346,22 +3358,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>34</v>
@@ -3369,22 +3381,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>34</v>
@@ -3392,22 +3404,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>34</v>
@@ -3415,19 +3427,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3438,22 +3450,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>34</v>
@@ -3461,19 +3473,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3484,22 +3496,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>34</v>
@@ -3507,22 +3519,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>34</v>
@@ -3530,22 +3542,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>34</v>
@@ -3553,19 +3565,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3576,22 +3588,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>34</v>
@@ -3599,19 +3611,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3622,22 +3634,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>34</v>
@@ -3645,19 +3657,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>21</v>
@@ -3668,19 +3680,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3691,19 +3703,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3714,22 +3726,22 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>34</v>
@@ -3737,22 +3749,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>34</v>
@@ -3760,22 +3772,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>34</v>
@@ -3783,22 +3795,22 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>34</v>
@@ -3806,22 +3818,22 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>34</v>
@@ -3829,19 +3841,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>21</v>
@@ -3852,19 +3864,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3875,22 +3887,22 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>34</v>
@@ -3898,19 +3910,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>21</v>
@@ -3921,22 +3933,22 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>34</v>
@@ -3944,19 +3956,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3967,22 +3979,22 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>34</v>
@@ -3990,19 +4002,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -4013,19 +4025,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>21</v>
@@ -4036,19 +4048,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4059,19 +4071,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>21</v>
@@ -4082,19 +4094,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>21</v>
@@ -4105,19 +4117,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4128,19 +4140,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4151,19 +4163,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4174,19 +4186,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4197,22 +4209,22 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>34</v>
@@ -4220,19 +4232,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4243,22 +4255,22 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>34</v>
@@ -4266,22 +4278,22 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="C157" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>34</v>
@@ -4289,19 +4301,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4312,19 +4324,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4335,19 +4347,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4358,19 +4370,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4381,19 +4393,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4404,19 +4416,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4427,19 +4439,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4450,10 +4462,10 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>17</v>
@@ -4462,7 +4474,7 @@
         <v>65</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4473,19 +4485,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4496,19 +4508,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4519,19 +4531,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4542,19 +4554,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4565,19 +4577,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4588,19 +4600,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4611,19 +4623,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>167</v>
+        <v>98</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>169</v>
+        <v>99</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4634,19 +4646,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4657,19 +4669,19 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4680,19 +4692,19 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4703,19 +4715,19 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4726,19 +4738,19 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -4749,19 +4761,19 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="C178" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -4772,600 +4784,600 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>183</v>
+        <v>65</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>185</v>
+        <v>34</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>185</v>
+        <v>34</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>185</v>
+        <v>34</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>185</v>
+        <v>34</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>185</v>
+        <v>34</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>185</v>
+        <v>34</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C185" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D185" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E185" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>185</v>
+        <v>34</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>185</v>
+        <v>34</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="205">
@@ -5373,22 +5385,22 @@
         <v>186</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="E205" s="2" t="s">
-        <v>188</v>
+        <v>110</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>34</v>
+        <v>189</v>
       </c>
     </row>
     <row r="206">
@@ -5396,22 +5408,22 @@
         <v>186</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G206" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G206" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="207">
@@ -5419,22 +5431,22 @@
         <v>186</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>191</v>
+        <v>113</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>192</v>
+        <v>114</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>34</v>
+        <v>189</v>
       </c>
     </row>
     <row r="208">
@@ -5442,22 +5454,22 @@
         <v>186</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>65</v>
+        <v>187</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>194</v>
+        <v>116</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>34</v>
+        <v>189</v>
       </c>
     </row>
     <row r="209">
@@ -5465,21 +5477,251 @@
         <v>186</v>
       </c>
       <c r="B209" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D209" s="2" t="s">
+      <c r="C217" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D217" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E209" s="2" t="s">
+      <c r="E217" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="F209" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G209" s="2" t="s">
+      <c r="F217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" s="2" t="s">
         <v>34</v>
       </c>
     </row>
